--- a/9_15 - Group 4 – To-do list for Project 1.xlsx
+++ b/9_15 - Group 4 – To-do list for Project 1.xlsx
@@ -64,13 +64,13 @@
     <t>Create Propositions</t>
   </si>
   <si>
-    <t>Prachi disappeared again. Deadline extended by two days.</t>
+    <t>Deadline extended by two days.</t>
   </si>
   <si>
     <t>Record Group Videos &amp; Youtube Uploads</t>
   </si>
   <si>
-    <t>Prachi disappeared again; Theo recorded on his own. Deadline extended by two days.</t>
+    <t>Theo &amp; Prachi recorded separately due to timing on Prachi's part. Deadline extended by two days.</t>
   </si>
   <si>
     <t>Homework Submission</t>
